--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.457056414709381</v>
+        <v>0.5288616666666667</v>
       </c>
       <c r="N2">
-        <v>0.457056414709381</v>
+        <v>1.586585</v>
       </c>
       <c r="O2">
-        <v>0.002269982971482679</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="P2">
-        <v>0.002269982971482679</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="Q2">
-        <v>88.9635050829704</v>
+        <v>103.3582855521883</v>
       </c>
       <c r="R2">
-        <v>88.9635050829704</v>
+        <v>930.224569969695</v>
       </c>
       <c r="S2">
-        <v>0.0007065178976268412</v>
+        <v>0.0007734772002660639</v>
       </c>
       <c r="T2">
-        <v>0.0007065178976268412</v>
+        <v>0.0007734772002660639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.11625274991922</v>
+        <v>1.125832666666667</v>
       </c>
       <c r="N3">
-        <v>1.11625274991922</v>
+        <v>3.377498</v>
       </c>
       <c r="O3">
-        <v>0.005543899292603749</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="P3">
-        <v>0.005543899292603749</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="Q3">
-        <v>217.2724285129259</v>
+        <v>220.0275451589073</v>
       </c>
       <c r="R3">
-        <v>217.2724285129259</v>
+        <v>1980.247906430166</v>
       </c>
       <c r="S3">
-        <v>0.001725503724949516</v>
+        <v>0.001646566491517461</v>
       </c>
       <c r="T3">
-        <v>0.001725503724949516</v>
+        <v>0.00164656649151746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.176992560799</v>
+        <v>123.474785</v>
       </c>
       <c r="N4">
-        <v>123.176992560799</v>
+        <v>370.424355</v>
       </c>
       <c r="O4">
-        <v>0.6117618451307635</v>
+        <v>0.5833362747569298</v>
       </c>
       <c r="P4">
-        <v>0.6117618451307635</v>
+        <v>0.58333627475693</v>
       </c>
       <c r="Q4">
-        <v>23975.72083252665</v>
+        <v>24131.34263816636</v>
       </c>
       <c r="R4">
-        <v>23975.72083252665</v>
+        <v>217182.0837434973</v>
       </c>
       <c r="S4">
-        <v>0.1904070198323081</v>
+        <v>0.1805858450796916</v>
       </c>
       <c r="T4">
-        <v>0.1904070198323081</v>
+        <v>0.1805858450796916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.597646894137</v>
+        <v>86.43835066666666</v>
       </c>
       <c r="N5">
-        <v>76.597646894137</v>
+        <v>259.315052</v>
       </c>
       <c r="O5">
-        <v>0.3804242726051501</v>
+        <v>0.4083637438528564</v>
       </c>
       <c r="P5">
-        <v>0.3804242726051501</v>
+        <v>0.4083637438528565</v>
       </c>
       <c r="Q5">
-        <v>14909.30863128364</v>
+        <v>16893.11268705841</v>
       </c>
       <c r="R5">
-        <v>14909.30863128364</v>
+        <v>152038.0141835257</v>
       </c>
       <c r="S5">
-        <v>0.1184046579484492</v>
+        <v>0.1264188684550835</v>
       </c>
       <c r="T5">
-        <v>0.1184046579484492</v>
+        <v>0.1264188684550835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H6">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I6">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J6">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.457056414709381</v>
+        <v>0.1021626666666667</v>
       </c>
       <c r="N6">
-        <v>0.457056414709381</v>
+        <v>0.306488</v>
       </c>
       <c r="O6">
-        <v>0.002269982971482679</v>
+        <v>0.0004826506836401238</v>
       </c>
       <c r="P6">
-        <v>0.002269982971482679</v>
+        <v>0.0004826506836401239</v>
       </c>
       <c r="Q6">
-        <v>36.4581722126966</v>
+        <v>19.96620050127733</v>
       </c>
       <c r="R6">
-        <v>36.4581722126966</v>
+        <v>179.695804511496</v>
       </c>
       <c r="S6">
-        <v>0.000289538402955331</v>
+        <v>0.0001494161864351077</v>
       </c>
       <c r="T6">
-        <v>0.000289538402955331</v>
+        <v>0.0001494161864351077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.11625274991922</v>
+        <v>0.5288616666666667</v>
       </c>
       <c r="N7">
-        <v>1.11625274991922</v>
+        <v>1.586585</v>
       </c>
       <c r="O7">
-        <v>0.005543899292603749</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="P7">
-        <v>0.005543899292603749</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="Q7">
-        <v>89.04050721031436</v>
+        <v>42.21757389071445</v>
       </c>
       <c r="R7">
-        <v>89.04050721031436</v>
+        <v>379.95816501643</v>
       </c>
       <c r="S7">
-        <v>0.0007071294223309669</v>
+        <v>0.0003159333640313476</v>
       </c>
       <c r="T7">
-        <v>0.0007071294223309669</v>
+        <v>0.0003159333640313476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.176992560799</v>
+        <v>1.125832666666667</v>
       </c>
       <c r="N8">
-        <v>123.176992560799</v>
+        <v>3.377498</v>
       </c>
       <c r="O8">
-        <v>0.6117618451307635</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="P8">
-        <v>0.6117618451307635</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="Q8">
-        <v>9825.500447858574</v>
+        <v>89.87212874238712</v>
       </c>
       <c r="R8">
-        <v>9825.500447858574</v>
+        <v>808.849158681484</v>
       </c>
       <c r="S8">
-        <v>0.07803078254480171</v>
+        <v>0.0006725541368090259</v>
       </c>
       <c r="T8">
-        <v>0.07803078254480171</v>
+        <v>0.0006725541368090257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>76.597646894137</v>
+        <v>123.474785</v>
       </c>
       <c r="N9">
-        <v>76.597646894137</v>
+        <v>370.424355</v>
       </c>
       <c r="O9">
-        <v>0.3804242726051501</v>
+        <v>0.5833362747569298</v>
       </c>
       <c r="P9">
-        <v>0.3804242726051501</v>
+        <v>0.58333627475693</v>
       </c>
       <c r="Q9">
-        <v>6109.990171190247</v>
+        <v>9856.652860157343</v>
       </c>
       <c r="R9">
-        <v>6109.990171190247</v>
+        <v>88709.87574141608</v>
       </c>
       <c r="S9">
-        <v>0.04852346370844971</v>
+        <v>0.0737618297124277</v>
       </c>
       <c r="T9">
-        <v>0.04852346370844971</v>
+        <v>0.0737618297124277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J10">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.457056414709381</v>
+        <v>86.43835066666666</v>
       </c>
       <c r="N10">
-        <v>0.457056414709381</v>
+        <v>259.315052</v>
       </c>
       <c r="O10">
-        <v>0.002269982971482679</v>
+        <v>0.4083637438528564</v>
       </c>
       <c r="P10">
-        <v>0.002269982971482679</v>
+        <v>0.4083637438528565</v>
       </c>
       <c r="Q10">
-        <v>74.14321820808708</v>
+        <v>6900.136058757935</v>
       </c>
       <c r="R10">
-        <v>74.14321820808708</v>
+        <v>62101.22452882141</v>
       </c>
       <c r="S10">
-        <v>0.0005888202201881678</v>
+        <v>0.05163686579812857</v>
       </c>
       <c r="T10">
-        <v>0.0005888202201881678</v>
+        <v>0.05163686579812856</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H11">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J11">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.11625274991922</v>
+        <v>0.1021626666666667</v>
       </c>
       <c r="N11">
-        <v>1.11625274991922</v>
+        <v>0.306488</v>
       </c>
       <c r="O11">
-        <v>0.005543899292603749</v>
+        <v>0.0004826506836401238</v>
       </c>
       <c r="P11">
-        <v>0.005543899292603749</v>
+        <v>0.0004826506836401239</v>
       </c>
       <c r="Q11">
-        <v>181.0773649578084</v>
+        <v>8.155365005100444</v>
       </c>
       <c r="R11">
-        <v>181.0773649578084</v>
+        <v>73.39828504590399</v>
       </c>
       <c r="S11">
-        <v>0.001438054841459799</v>
+        <v>6.103031660783358E-05</v>
       </c>
       <c r="T11">
-        <v>0.001438054841459799</v>
+        <v>6.103031660783358E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H12">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.176992560799</v>
+        <v>0.5288616666666667</v>
       </c>
       <c r="N12">
-        <v>123.176992560799</v>
+        <v>1.586585</v>
       </c>
       <c r="O12">
-        <v>0.6117618451307635</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="P12">
-        <v>0.6117618451307635</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="Q12">
-        <v>19981.64415536818</v>
+        <v>85.94618612635611</v>
       </c>
       <c r="R12">
-        <v>19981.64415536818</v>
+        <v>773.515675137205</v>
       </c>
       <c r="S12">
-        <v>0.1586874213938854</v>
+        <v>0.0006431745172958943</v>
       </c>
       <c r="T12">
-        <v>0.1586874213938854</v>
+        <v>0.0006431745172958944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H13">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.597646894137</v>
+        <v>1.125832666666667</v>
       </c>
       <c r="N13">
-        <v>76.597646894137</v>
+        <v>3.377498</v>
       </c>
       <c r="O13">
-        <v>0.3804242726051501</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="P13">
-        <v>0.3804242726051501</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="Q13">
-        <v>12425.59094484893</v>
+        <v>182.9609329152838</v>
       </c>
       <c r="R13">
-        <v>12425.59094484893</v>
+        <v>1646.648396237554</v>
       </c>
       <c r="S13">
-        <v>0.09867981688601724</v>
+        <v>0.001369180123231878</v>
       </c>
       <c r="T13">
-        <v>0.09867981688601724</v>
+        <v>0.001369180123231878</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H14">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I14">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J14">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.457056414709381</v>
+        <v>123.474785</v>
       </c>
       <c r="N14">
-        <v>0.457056414709381</v>
+        <v>370.424355</v>
       </c>
       <c r="O14">
-        <v>0.002269982971482679</v>
+        <v>0.5833362747569298</v>
       </c>
       <c r="P14">
-        <v>0.002269982971482679</v>
+        <v>0.58333627475693</v>
       </c>
       <c r="Q14">
-        <v>72.50394982628201</v>
+        <v>20066.09199038527</v>
       </c>
       <c r="R14">
-        <v>72.50394982628201</v>
+        <v>180594.8279134674</v>
       </c>
       <c r="S14">
-        <v>0.0005758017082750084</v>
+        <v>0.1501637200161151</v>
       </c>
       <c r="T14">
-        <v>0.0005758017082750084</v>
+        <v>0.1501637200161151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H15">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I15">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J15">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.11625274991922</v>
+        <v>86.43835066666666</v>
       </c>
       <c r="N15">
-        <v>1.11625274991922</v>
+        <v>259.315052</v>
       </c>
       <c r="O15">
-        <v>0.005543899292603749</v>
+        <v>0.4083637438528564</v>
       </c>
       <c r="P15">
-        <v>0.005543899292603749</v>
+        <v>0.4083637438528565</v>
       </c>
       <c r="Q15">
-        <v>177.0738376466141</v>
+        <v>14047.23965281262</v>
       </c>
       <c r="R15">
-        <v>177.0738376466141</v>
+        <v>126425.1568753136</v>
       </c>
       <c r="S15">
-        <v>0.00140626018930037</v>
+        <v>0.1051219023233295</v>
       </c>
       <c r="T15">
-        <v>0.00140626018930037</v>
+        <v>0.1051219023233295</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H16">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I16">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J16">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>123.176992560799</v>
+        <v>0.1021626666666667</v>
       </c>
       <c r="N16">
-        <v>123.176992560799</v>
+        <v>0.306488</v>
       </c>
       <c r="O16">
-        <v>0.6117618451307635</v>
+        <v>0.0004826506836401238</v>
       </c>
       <c r="P16">
-        <v>0.6117618451307635</v>
+        <v>0.0004826506836401239</v>
       </c>
       <c r="Q16">
-        <v>19539.86029068017</v>
+        <v>16.60262431164711</v>
       </c>
       <c r="R16">
-        <v>19539.86029068017</v>
+        <v>149.423618804824</v>
       </c>
       <c r="S16">
-        <v>0.1551789242073848</v>
+        <v>0.0001242450114283093</v>
       </c>
       <c r="T16">
-        <v>0.1551789242073848</v>
+        <v>0.0001242450114283093</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H17">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.597646894137</v>
+        <v>0.5288616666666667</v>
       </c>
       <c r="N17">
-        <v>76.597646894137</v>
+        <v>1.586585</v>
       </c>
       <c r="O17">
-        <v>0.3804242726051501</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="P17">
-        <v>0.3804242726051501</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="Q17">
-        <v>12150.86752639726</v>
+        <v>84.50735643794891</v>
       </c>
       <c r="R17">
-        <v>12150.86752639726</v>
+        <v>760.5662079415401</v>
       </c>
       <c r="S17">
-        <v>0.09649805694015724</v>
+        <v>0.0006324070983792275</v>
       </c>
       <c r="T17">
-        <v>0.09649805694015724</v>
+        <v>0.0006324070983792275</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H18">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I18">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J18">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.457056414709381</v>
+        <v>1.125832666666667</v>
       </c>
       <c r="N18">
-        <v>0.457056414709381</v>
+        <v>3.377498</v>
       </c>
       <c r="O18">
-        <v>0.002269982971482679</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="P18">
-        <v>0.002269982971482679</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="Q18">
-        <v>13.763463094253</v>
+        <v>179.8979741737503</v>
       </c>
       <c r="R18">
-        <v>13.763463094253</v>
+        <v>1619.081767563752</v>
       </c>
       <c r="S18">
-        <v>0.0001093047424373308</v>
+        <v>0.00134625860572339</v>
       </c>
       <c r="T18">
-        <v>0.0001093047424373308</v>
+        <v>0.00134625860572339</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H19">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I19">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J19">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.11625274991922</v>
+        <v>123.474785</v>
       </c>
       <c r="N19">
-        <v>1.11625274991922</v>
+        <v>370.424355</v>
       </c>
       <c r="O19">
-        <v>0.005543899292603749</v>
+        <v>0.5833362747569298</v>
       </c>
       <c r="P19">
-        <v>0.005543899292603749</v>
+        <v>0.58333627475693</v>
       </c>
       <c r="Q19">
-        <v>33.614020136093</v>
+        <v>19730.16447355945</v>
       </c>
       <c r="R19">
-        <v>33.614020136093</v>
+        <v>177571.480262035</v>
       </c>
       <c r="S19">
-        <v>0.0002669511145630974</v>
+        <v>0.1476498211659299</v>
       </c>
       <c r="T19">
-        <v>0.0002669511145630974</v>
+        <v>0.1476498211659299</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1647,427 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H20">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I20">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J20">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>123.176992560799</v>
+        <v>86.43835066666666</v>
       </c>
       <c r="N20">
-        <v>123.176992560799</v>
+        <v>259.315052</v>
       </c>
       <c r="O20">
-        <v>0.6117618451307635</v>
+        <v>0.4083637438528564</v>
       </c>
       <c r="P20">
-        <v>0.6117618451307635</v>
+        <v>0.4083637438528565</v>
       </c>
       <c r="Q20">
-        <v>3709.262000511721</v>
+        <v>13812.0740641625</v>
       </c>
       <c r="R20">
-        <v>3709.262000511721</v>
+        <v>124308.6665774625</v>
       </c>
       <c r="S20">
-        <v>0.02945769715238349</v>
+        <v>0.1033620509467684</v>
       </c>
       <c r="T20">
-        <v>0.02945769715238349</v>
+        <v>0.1033620509467684</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H21">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J21">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1021626666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.306488</v>
+      </c>
+      <c r="O21">
+        <v>0.0004826506836401238</v>
+      </c>
+      <c r="P21">
+        <v>0.0004826506836401239</v>
+      </c>
+      <c r="Q21">
+        <v>16.32467889205689</v>
+      </c>
+      <c r="R21">
+        <v>146.922110028512</v>
+      </c>
+      <c r="S21">
+        <v>0.0001221650190617286</v>
+      </c>
+      <c r="T21">
+        <v>0.0001221650190617286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H22">
+        <v>101.215736</v>
+      </c>
+      <c r="I22">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J22">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5288616666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.586585</v>
+      </c>
+      <c r="O22">
+        <v>0.002498519794912577</v>
+      </c>
+      <c r="P22">
+        <v>0.002498519794912577</v>
+      </c>
+      <c r="Q22">
+        <v>17.84304094461778</v>
+      </c>
+      <c r="R22">
+        <v>160.58736850156</v>
+      </c>
+      <c r="S22">
+        <v>0.0001335276149400439</v>
+      </c>
+      <c r="T22">
+        <v>0.0001335276149400439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H23">
+        <v>101.215736</v>
+      </c>
+      <c r="I23">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J23">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.125832666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.377498</v>
+      </c>
+      <c r="O23">
+        <v>0.005318810911660982</v>
+      </c>
+      <c r="P23">
+        <v>0.005318810911660982</v>
+      </c>
+      <c r="Q23">
+        <v>37.98399398983644</v>
+      </c>
+      <c r="R23">
+        <v>341.855945908528</v>
+      </c>
+      <c r="S23">
+        <v>0.0002842515543792285</v>
+      </c>
+      <c r="T23">
+        <v>0.0002842515543792285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H24">
+        <v>101.215736</v>
+      </c>
+      <c r="I24">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J24">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>123.474785</v>
+      </c>
+      <c r="N24">
+        <v>370.424355</v>
+      </c>
+      <c r="O24">
+        <v>0.5833362747569298</v>
+      </c>
+      <c r="P24">
+        <v>0.58333627475693</v>
+      </c>
+      <c r="Q24">
+        <v>4165.863747072252</v>
+      </c>
+      <c r="R24">
+        <v>37492.77372365028</v>
+      </c>
+      <c r="S24">
+        <v>0.03117505878276557</v>
+      </c>
+      <c r="T24">
+        <v>0.03117505878276557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>30.1132697218668</v>
-      </c>
-      <c r="H21">
-        <v>30.1132697218668</v>
-      </c>
-      <c r="I21">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="J21">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>76.597646894137</v>
-      </c>
-      <c r="N21">
-        <v>76.597646894137</v>
-      </c>
-      <c r="O21">
-        <v>0.3804242726051501</v>
-      </c>
-      <c r="P21">
-        <v>0.3804242726051501</v>
-      </c>
-      <c r="Q21">
-        <v>2306.60560098346</v>
-      </c>
-      <c r="R21">
-        <v>2306.60560098346</v>
-      </c>
-      <c r="S21">
-        <v>0.0183182771220767</v>
-      </c>
-      <c r="T21">
-        <v>0.0183182771220767</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H25">
+        <v>101.215736</v>
+      </c>
+      <c r="I25">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J25">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.43835066666666</v>
+      </c>
+      <c r="N25">
+        <v>259.315052</v>
+      </c>
+      <c r="O25">
+        <v>0.4083637438528564</v>
+      </c>
+      <c r="P25">
+        <v>0.4083637438528565</v>
+      </c>
+      <c r="Q25">
+        <v>2916.307093784252</v>
+      </c>
+      <c r="R25">
+        <v>26246.76384405827</v>
+      </c>
+      <c r="S25">
+        <v>0.02182405632954644</v>
+      </c>
+      <c r="T25">
+        <v>0.02182405632954644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H26">
+        <v>101.215736</v>
+      </c>
+      <c r="I26">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J26">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1021626666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.306488</v>
+      </c>
+      <c r="O26">
+        <v>0.0004826506836401238</v>
+      </c>
+      <c r="P26">
+        <v>0.0004826506836401239</v>
+      </c>
+      <c r="Q26">
+        <v>3.446823166129777</v>
+      </c>
+      <c r="R26">
+        <v>31.021408495168</v>
+      </c>
+      <c r="S26">
+        <v>2.579415010714469E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.579415010714469E-05</v>
       </c>
     </row>
   </sheetData>
